--- a/JOBCON/ALCAZAR, AIREEN B..xlsx
+++ b/JOBCON/ALCAZAR, AIREEN B..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>PERIOD</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>9/26,27/2023</t>
+  </si>
+  <si>
+    <t>10/2-4/2023</t>
   </si>
 </sst>
 </file>
@@ -2961,7 +2970,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3228,8 +3237,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
@@ -3240,12 +3253,18 @@
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="20"/>
+      <c r="J14" s="11">
+        <v>2</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
@@ -3256,8 +3275,12 @@
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="J15" s="11">
+        <v>3</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
